--- a/updated/static/excel_file/sampleipmt.xlsx
+++ b/updated/static/excel_file/sampleipmt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLIENT\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLIENT\Desktop\13-11-25-system\latest\updated\static\excel_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C68EBD0-8F41-4026-A79E-949066BDAC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590AAF09-175E-490E-97D8-256300C3AC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{B862200C-10A1-4909-B1D6-480BACECCA27}"/>
   </bookViews>
@@ -36,25 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t xml:space="preserve"> Department Head/ Supervisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Employee</t>
-  </si>
-  <si>
-    <t>ENGR. ALLAN U. VARGAS</t>
-  </si>
-  <si>
-    <t>Checked and Verified by:</t>
-  </si>
-  <si>
-    <t>Prepared by:</t>
-  </si>
-  <si>
-    <t>*Based on the IPCR Major Final Output (MFO)/ Program, Activity and Project (PAP), select only those success indicators where the accomplishments for the period are aligned to.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Comments / Remarks</t>
   </si>
@@ -78,17 +60,26 @@
     <t xml:space="preserve">Name of Employee : </t>
   </si>
   <si>
-    <t>General Services Office</t>
-  </si>
-  <si>
     <t xml:space="preserve">College/Campus/Department/Unit : </t>
+  </si>
+  <si>
+    <t>Doc. Ref. No.:</t>
+  </si>
+  <si>
+    <t>Effective Date:</t>
+  </si>
+  <si>
+    <t>Revision No.:</t>
+  </si>
+  <si>
+    <t>Page No.:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,20 +108,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial Narrow"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial Narrow"/>
       <charset val="134"/>
@@ -138,8 +115,28 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial Narrow"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -168,96 +165,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -270,39 +183,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -336,59 +216,7 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -405,32 +233,32 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -447,125 +275,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,14 +350,64 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>313414</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1BB7C7-BA99-B288-BA2E-9C7E1130AF2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="313414" y="45721"/>
+          <a:ext cx="677186" cy="620040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1195411</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6667500" cy="615315"/>
+    <xdr:ext cx="3976579" cy="682487"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="image1.png">
@@ -607,23 +421,23 @@
           <a:picLocks noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
+        <a:srcRect l="14453" t="5517" r="31522" b="4012"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6667500" cy="615315"/>
+          <a:off x="1195411" y="38101"/>
+          <a:ext cx="3976579" cy="682487"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,6 +469,56 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1263805</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1263805</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3717</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576ED73E-935C-86CC-EBED-70638084939F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1263805" y="0"/>
+          <a:ext cx="0" cy="747132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -916,193 +780,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303C52CC-0D53-48D1-9BA9-79CDDE94DBAA}">
-  <dimension ref="A4:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" ht="6" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-    </row>
-    <row r="5" spans="1:3" hidden="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-    </row>
-    <row r="6" spans="1:3" hidden="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="41"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="25" t="s">
+    <row r="1" spans="1:4" ht="14.4" customHeight="1">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.6">
+      <c r="A4" s="19"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-    </row>
-    <row r="12" spans="1:3" ht="27.6">
-      <c r="A12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" hidden="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" hidden="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="15"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="15"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="15"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="37"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="15"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="37"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="15"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="38"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="15"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A27" s="29" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5">
-        <f>B8</f>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="27.6">
+      <c r="A12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="33"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="35"/>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="2"/>
@@ -1133,17 +1033,16 @@
       <c r="C37" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A4:C4"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="B7 B65543 B131079 B196615 B262151 B327687 B393223 B458759 B524295 B589831 B655367 B720903 B786439 B851975 B917511 B983047" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -1151,6 +1050,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>